--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value27.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value27.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.147933204806592</v>
+        <v>4.245694160461426</v>
       </c>
       <c r="B1">
-        <v>1.231287852527245</v>
+        <v>3.370534181594849</v>
       </c>
       <c r="C1">
-        <v>1.220266771450395</v>
+        <v>2.969667673110962</v>
       </c>
       <c r="D1">
-        <v>1.48018980285385</v>
+        <v>3.709372282028198</v>
       </c>
       <c r="E1">
-        <v>2.12453745754719</v>
+        <v>5.226315975189209</v>
       </c>
     </row>
   </sheetData>
